--- a/Examples/single-family-home-sales.xlsx
+++ b/Examples/single-family-home-sales.xlsx
@@ -348,7 +348,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -359,6 +359,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -384,21 +388,21 @@
   </sheetPr>
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A73" activeCellId="0" sqref="A73"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A73" activeCellId="0" sqref="A73:B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.83400809716599"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5060728744939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.32793522267206"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2388663967611"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.32793522267206"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.2388663967611"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.32793522267206"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.2388663967611"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.95546558704453"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.753036437247"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4817813765182"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4817813765182"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.4817813765182"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -998,12 +1002,12 @@
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2"/>
       <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
